--- a/INTLINE/data/536/BIDN/SDDS/old/OutstandingGovernmentSecurity.xlsx
+++ b/INTLINE/data/536/BIDN/SDDS/old/OutstandingGovernmentSecurity.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Outstanding Government Sec" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Outstanding Government Sec'!$D$84:$H$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Outstanding Government Sec'!$D$84:$H$110</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Outstanding Government Sec'!$4:$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="16">
   <si>
     <t>OUTSTANDING   GOVERNMENT   SECURITIES (ON &amp; SPN)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>PERIOD</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update  :  15/11/2021  </t>
+    <t xml:space="preserve">Last update  :  15/02/2022  </t>
   </si>
 </sst>
 </file>
@@ -865,6 +865,9 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -873,21 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,6 +902,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,12 +1340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="2685" topLeftCell="A102" activePane="bottomLeft"/>
       <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomLeft" activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1358,21 +1358,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
@@ -1382,29 +1382,29 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
@@ -1424,13 +1424,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>2003</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
@@ -1501,13 +1501,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>2004</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
@@ -1578,13 +1578,13 @@
       </c>
     </row>
     <row r="18" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="13">
+      <c r="D18" s="14">
         <v>2005</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
@@ -1655,13 +1655,13 @@
       </c>
     </row>
     <row r="23" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="13">
+      <c r="D23" s="14">
         <v>2006</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
@@ -1732,13 +1732,13 @@
       </c>
     </row>
     <row r="28" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="13">
+      <c r="D28" s="14">
         <v>2007</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
@@ -1809,13 +1809,13 @@
       </c>
     </row>
     <row r="33" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="13">
+      <c r="D33" s="14">
         <v>2008</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
@@ -1886,13 +1886,13 @@
       </c>
     </row>
     <row r="38" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="13">
+      <c r="D38" s="14">
         <v>2009</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
@@ -1963,13 +1963,13 @@
       </c>
     </row>
     <row r="43" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="13">
+      <c r="D43" s="14">
         <v>2010</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
@@ -2040,13 +2040,13 @@
       </c>
     </row>
     <row r="48" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="13">
+      <c r="D48" s="14">
         <v>2011</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -2117,13 +2117,13 @@
       </c>
     </row>
     <row r="53" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="17">
+      <c r="D53" s="27">
         <v>2012</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
@@ -2194,13 +2194,13 @@
       </c>
     </row>
     <row r="58" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="17">
+      <c r="D58" s="27">
         <v>2013</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
     </row>
     <row r="59" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D59" s="3" t="s">
@@ -2271,13 +2271,13 @@
       </c>
     </row>
     <row r="63" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="17">
+      <c r="D63" s="27">
         <v>2014</v>
       </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="19"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="4:8" ht="18" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
@@ -2375,13 +2375,13 @@
       </c>
     </row>
     <row r="71" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="17">
+      <c r="D71" s="27">
         <v>2015</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="19"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="3" t="s">
@@ -2480,13 +2480,13 @@
       </c>
     </row>
     <row r="79" spans="4:8" ht="16.5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="17">
+      <c r="D79" s="27">
         <v>2016</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="19"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="3" t="s">
@@ -2557,13 +2557,13 @@
       </c>
     </row>
     <row r="84" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="17">
+      <c r="D84" s="27">
         <v>2017</v>
       </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="19"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="29"/>
     </row>
     <row r="85" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="3" t="s">
@@ -2634,13 +2634,13 @@
       </c>
     </row>
     <row r="89" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D89" s="17">
+      <c r="D89" s="27">
         <v>2018</v>
       </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="19"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="3" t="s">
@@ -2711,13 +2711,13 @@
       </c>
     </row>
     <row r="94" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="17">
+      <c r="D94" s="27">
         <v>2019</v>
       </c>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="19"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="29"/>
     </row>
     <row r="95" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="3" t="s">
@@ -2788,13 +2788,13 @@
       </c>
     </row>
     <row r="99" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="17">
+      <c r="D99" s="27">
         <v>2020</v>
       </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="19"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="29"/>
     </row>
     <row r="100" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="3" t="s">
@@ -2863,13 +2863,13 @@
       <c r="H103" s="5"/>
     </row>
     <row r="104" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D104" s="17">
+      <c r="D104" s="27">
         <v>2021</v>
       </c>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="19"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="29"/>
     </row>
     <row r="105" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="3" t="s">
@@ -2922,34 +2922,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D109" s="16" t="s">
+    <row r="108" spans="4:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="6">
+        <v>3860610.432</v>
+      </c>
+      <c r="F108" s="6">
+        <v>3106548.716</v>
+      </c>
+      <c r="G108" s="6">
+        <v>636234.10499999998</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D13:H13"/>
     <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
     <mergeCell ref="D43:H43"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D33:H33"/>
@@ -2964,6 +2973,14 @@
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D99:H99"/>
     <mergeCell ref="D104:H104"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
